--- a/biology/Médecine/Hôpital_régional_de_Saint-Jérôme/Hôpital_régional_de_Saint-Jérôme.xlsx
+++ b/biology/Médecine/Hôpital_régional_de_Saint-Jérôme/Hôpital_régional_de_Saint-Jérôme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_r%C3%A9gional_de_Saint-J%C3%A9r%C3%B4me</t>
+          <t>Hôpital_régional_de_Saint-Jérôme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'hôpital régional de Saint-Jérôme est un hôpital situé à Saint-Jérôme.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_r%C3%A9gional_de_Saint-J%C3%A9r%C3%B4me</t>
+          <t>Hôpital_régional_de_Saint-Jérôme</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital est fondé en 1948 par les Religieuses Hospitalières de Saint-Joseph de l'Hôtel-Dieu d'Arthabaska[1] sous le nom d'Hôtel-Dieu de Saint-Jérôme. Les premiers patients sont admis en 1950. Une école d’infirmières y voit le jour en 1958[2]. Les dernières sœurs infirmières quitteront en 1976[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital est fondé en 1948 par les Religieuses Hospitalières de Saint-Joseph de l'Hôtel-Dieu d'Arthabaska sous le nom d'Hôtel-Dieu de Saint-Jérôme. Les premiers patients sont admis en 1950. Une école d’infirmières y voit le jour en 1958. Les dernières sœurs infirmières quitteront en 1976.
 Un agrandissement est effectué en 1990, permettant à l'établissement de dépasser les 400 lits.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_r%C3%A9gional_de_Saint-J%C3%A9r%C3%B4me</t>
+          <t>Hôpital_régional_de_Saint-Jérôme</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Statistiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3 900 employés[4]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>3 900 employés
 349 médecins
 405 lits de courte durée, dont 76 en psychiatrie</t>
         </is>
